--- a/tabulky.xlsx
+++ b/tabulky.xlsx
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -86,13 +86,428 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -968,7 +1383,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1638,7 +2053,1767 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Gragam scan - random</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1462098436042602"/>
+          <c:y val="0.20219190448014807"/>
+          <c:w val="0.82348712609270946"/>
+          <c:h val="0.49657161713167358"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1632285633717273E-2"/>
+                  <c:y val="-7.9443736440459392E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1632285633717273E-2"/>
+                  <c:y val="-7.4626780756451683E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9896748443634629E-2"/>
+                  <c:y val="-0.12279633759652876"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2651569380273844E-2"/>
+                  <c:y val="-0.11316242622851334"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7197023925728289E-2"/>
+                  <c:y val="-0.12279633759652876"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6480770482202119E-2"/>
+                  <c:y val="-0.11316242622851334"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11588186807227609"/>
+                  <c:y val="-2.6457223916374614E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-B3BB-443D-BC3F-38900CCF10CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$93:$O$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$104:$O$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>406.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2193.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4324.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7797.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3BB-443D-BC3F-38900CCF10CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="82496896"/>
+        <c:axId val="82313984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82496896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82313984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82313984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[msec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82496896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Gragam scan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>grid</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$93:$AC$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$104:$AC$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1992.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3637.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10386.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D02E-4BDD-99DE-2271B9E70015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="83564032"/>
+        <c:axId val="83565568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83564032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83565568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83565568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[msec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83564032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Gragam</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" baseline="0"/>
+              <a:t> scan </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>cluster</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AG$93:$AQ$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$104:$AQ$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>395.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>865.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2753-4E2F-AE57-8F4E38BC69D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="86946176"/>
+        <c:axId val="86947712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86946176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86947712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86947712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[msec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86946176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2291,7 +4466,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3073,7 +5248,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3722,7 +5897,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4413,7 +6588,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5061,7 +7236,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6963,7 +9138,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7634,12 +9809,132 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8501,6 +10796,1512 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -12746,15 +16547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>145732</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>450532</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12888,6 +16689,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AC5E66-88D4-4FF6-9C04-2B77CD54B95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728EFF77-3E02-4CF6-8CDA-6D719F4208C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB0BE69-F301-425F-ABF5-72B44AA94EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13161,8 +17076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AQ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z97" workbookViewId="0">
-      <selection activeCell="AE115" sqref="AE115"/>
+    <sheetView tabSelected="1" topLeftCell="Z82" workbookViewId="0">
+      <selection activeCell="AE93" sqref="AE93:AQ104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13190,252 +17105,260 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="4" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
         <v>1000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>2500</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>5000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>10000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>15000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>25000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>50000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>100000</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>250000</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>500000</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>1000000</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="R5" s="19"/>
+      <c r="S5" s="24">
         <f>E5</f>
         <v>1000</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <f t="shared" ref="T5:AC5" si="0">F5</f>
         <v>2500</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="6">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="6">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="6">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="6">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="6">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="6">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="7">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG5">
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="6">
         <f>S5</f>
         <v>1000</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="6">
         <f t="shared" ref="AH5:AQ5" si="1">T5</f>
         <v>2500</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="6">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="6">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="6">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="6">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="6">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="6">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="6">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="6">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="7">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>21</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>46</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>82</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>155</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>316</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>1107</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>5767</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>20168</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="9">
         <v>68634</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="8">
         <v>1</v>
       </c>
-      <c r="S6" s="1">
+      <c r="R6" s="20"/>
+      <c r="S6" s="23">
         <v>8</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>21</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <v>64</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <v>171</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="3">
         <v>347</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <v>663</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="3">
         <v>1763</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="3">
         <v>5042</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="3">
         <v>18839</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="3">
         <v>52373</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="9">
         <v>281982</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="8">
         <v>1</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="3">
         <v>0</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="3">
         <v>1</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="3">
         <v>2</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="3">
         <v>4</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="3">
         <v>6</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="3">
         <v>12</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="3">
         <v>27</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="3">
         <v>48</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="3">
         <v>122</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="3">
         <v>254</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="9">
         <v>545</v>
       </c>
     </row>
     <row r="7" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <v>4</v>
       </c>
@@ -13466,13 +17389,14 @@
       <c r="N7" s="1">
         <v>21544</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="10">
         <v>71104</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="8">
         <v>2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="R7" s="20"/>
+      <c r="S7" s="22">
         <v>8</v>
       </c>
       <c r="T7" s="1">
@@ -13502,12 +17426,13 @@
       <c r="AB7" s="1">
         <v>52315</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="10">
         <v>279871</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="8">
         <v>2</v>
       </c>
+      <c r="AF7" s="20"/>
       <c r="AG7" s="1">
         <v>0</v>
       </c>
@@ -13538,14 +17463,15 @@
       <c r="AP7" s="1">
         <v>248</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <v>4</v>
       </c>
@@ -13576,13 +17502,14 @@
       <c r="N8" s="1">
         <v>19877</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="10">
         <v>70819</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="8">
         <v>3</v>
       </c>
-      <c r="S8" s="1">
+      <c r="R8" s="20"/>
+      <c r="S8" s="22">
         <v>8</v>
       </c>
       <c r="T8" s="1">
@@ -13612,12 +17539,13 @@
       <c r="AB8" s="1">
         <v>52313</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="10">
         <v>281449</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="8">
         <v>3</v>
       </c>
+      <c r="AF8" s="20"/>
       <c r="AG8" s="1">
         <v>0</v>
       </c>
@@ -13648,14 +17576,15 @@
       <c r="AP8" s="1">
         <v>301</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8" s="10">
         <v>598</v>
       </c>
     </row>
     <row r="9" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <v>4</v>
       </c>
@@ -13686,13 +17615,14 @@
       <c r="N9" s="1">
         <v>20574</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="10">
         <v>70450</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="8">
         <v>4</v>
       </c>
-      <c r="S9" s="1">
+      <c r="R9" s="20"/>
+      <c r="S9" s="22">
         <v>9</v>
       </c>
       <c r="T9" s="1">
@@ -13722,12 +17652,13 @@
       <c r="AB9" s="1">
         <v>52521</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="10">
         <v>280599</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="8">
         <v>4</v>
       </c>
+      <c r="AF9" s="20"/>
       <c r="AG9" s="1">
         <v>1</v>
       </c>
@@ -13758,14 +17689,15 @@
       <c r="AP9" s="1">
         <v>268</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9" s="10">
         <v>601</v>
       </c>
     </row>
     <row r="10" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C10">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="1">
         <v>4</v>
       </c>
@@ -13796,13 +17728,14 @@
       <c r="N10" s="1">
         <v>20147</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="10">
         <v>75576</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="8">
         <v>5</v>
       </c>
-      <c r="S10" s="1">
+      <c r="R10" s="20"/>
+      <c r="S10" s="22">
         <v>8</v>
       </c>
       <c r="T10" s="1">
@@ -13832,12 +17765,13 @@
       <c r="AB10" s="1">
         <v>52421</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="10">
         <v>279565</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="8">
         <v>5</v>
       </c>
+      <c r="AF10" s="20"/>
       <c r="AG10" s="1">
         <v>1</v>
       </c>
@@ -13868,14 +17802,15 @@
       <c r="AP10" s="1">
         <v>298</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="10">
         <v>594</v>
       </c>
     </row>
     <row r="11" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C11">
+      <c r="C11" s="8">
         <v>6</v>
       </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="1">
         <v>5</v>
       </c>
@@ -13906,13 +17841,14 @@
       <c r="N11" s="1">
         <v>20698</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="10">
         <v>7854</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="8">
         <v>6</v>
       </c>
-      <c r="S11" s="1">
+      <c r="R11" s="20"/>
+      <c r="S11" s="22">
         <v>9</v>
       </c>
       <c r="T11" s="1">
@@ -13942,12 +17878,13 @@
       <c r="AB11" s="1">
         <v>52401</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="10">
         <v>281005</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="8">
         <v>6</v>
       </c>
+      <c r="AF11" s="20"/>
       <c r="AG11" s="1">
         <v>0</v>
       </c>
@@ -13978,14 +17915,15 @@
       <c r="AP11" s="1">
         <v>315</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AQ11" s="10">
         <v>584</v>
       </c>
     </row>
     <row r="12" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="1">
         <v>4</v>
       </c>
@@ -14016,13 +17954,14 @@
       <c r="N12" s="1">
         <v>19899</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="10">
         <v>64997</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="8">
         <v>7</v>
       </c>
-      <c r="S12" s="1">
+      <c r="R12" s="20"/>
+      <c r="S12" s="22">
         <v>8</v>
       </c>
       <c r="T12" s="1">
@@ -14052,12 +17991,13 @@
       <c r="AB12" s="1">
         <v>52512</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="10">
         <v>280339</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="8">
         <v>7</v>
       </c>
+      <c r="AF12" s="20"/>
       <c r="AG12" s="1">
         <v>1</v>
       </c>
@@ -14088,14 +18028,15 @@
       <c r="AP12" s="1">
         <v>275</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ12" s="10">
         <v>521</v>
       </c>
     </row>
     <row r="13" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C13">
+      <c r="C13" s="8">
         <v>8</v>
       </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1">
         <v>5</v>
       </c>
@@ -14126,13 +18067,14 @@
       <c r="N13" s="1">
         <v>20147</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="10">
         <v>69757</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="8">
         <v>8</v>
       </c>
-      <c r="S13" s="1">
+      <c r="R13" s="20"/>
+      <c r="S13" s="22">
         <v>9</v>
       </c>
       <c r="T13" s="1">
@@ -14162,12 +18104,13 @@
       <c r="AB13" s="1">
         <v>52390</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="10">
         <v>280642</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="8">
         <v>8</v>
       </c>
+      <c r="AF13" s="20"/>
       <c r="AG13" s="1">
         <v>0</v>
       </c>
@@ -14198,14 +18141,15 @@
       <c r="AP13" s="1">
         <v>325</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ13" s="10">
         <v>497</v>
       </c>
     </row>
     <row r="14" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="C14" s="8">
         <v>9</v>
       </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="1">
         <v>4</v>
       </c>
@@ -14236,13 +18180,14 @@
       <c r="N14" s="1">
         <v>21004</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="10">
         <v>65754</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="8">
         <v>9</v>
       </c>
-      <c r="S14" s="1">
+      <c r="R14" s="20"/>
+      <c r="S14" s="22">
         <v>9</v>
       </c>
       <c r="T14" s="1">
@@ -14272,12 +18217,13 @@
       <c r="AB14" s="1">
         <v>52389</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="10">
         <v>279562</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="8">
         <v>9</v>
       </c>
+      <c r="AF14" s="20"/>
       <c r="AG14" s="1">
         <v>1</v>
       </c>
@@ -14308,14 +18254,15 @@
       <c r="AP14" s="1">
         <v>301</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AQ14" s="10">
         <v>521</v>
       </c>
     </row>
-    <row r="15" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C15">
+    <row r="15" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="8">
         <v>10</v>
       </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="1">
         <v>4</v>
       </c>
@@ -14346,212 +18293,220 @@
       <c r="N15" s="1">
         <v>20997</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="10">
         <v>71544</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="8">
         <v>10</v>
       </c>
-      <c r="S15" s="1">
+      <c r="R15" s="20"/>
+      <c r="S15" s="25">
         <v>9</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="26">
         <v>21</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="26">
         <v>68</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="26">
         <v>168</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="26">
         <v>351</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="26">
         <v>668</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="26">
         <v>1777</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="26">
         <v>5047</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="26">
         <v>18790</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="26">
         <v>52280</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="27">
         <v>280339</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="8">
         <v>10</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="26">
         <v>1</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="26">
         <v>1</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="26">
         <v>2</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="26">
         <v>4</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="26">
         <v>7</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="26">
         <v>11</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="26">
         <v>25</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="26">
         <v>49</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="26">
         <v>122</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AP15" s="26">
         <v>268</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AQ15" s="27">
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="E16">
+    <row r="16" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
         <f>SUM(E6:E15)/10</f>
         <v>4.3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="13">
         <f t="shared" ref="F16:O16" si="2">SUM(F6:F15)/10</f>
         <v>11.1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <f t="shared" si="2"/>
         <v>23.7</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="13">
         <f t="shared" si="2"/>
         <v>43.4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="13">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="13">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <f t="shared" si="2"/>
         <v>364.2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="13">
         <f t="shared" si="2"/>
         <v>1047.7</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="13">
         <f t="shared" si="2"/>
         <v>6005.9</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="13">
         <f t="shared" si="2"/>
         <v>20505.5</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="14">
         <f t="shared" si="2"/>
         <v>63648.9</v>
       </c>
-      <c r="S16">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="24">
         <f>SUM(S6:S15)/10</f>
         <v>8.5</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="6">
         <f>SUM(T6:T15)/10</f>
         <v>20.6</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="6">
         <f t="shared" ref="U16:AC16" si="3">SUM(U6:U15)/10</f>
         <v>65.5</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="6">
         <f t="shared" si="3"/>
         <v>173.4</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="6">
         <f t="shared" si="3"/>
         <v>349.6</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="6">
         <f t="shared" si="3"/>
         <v>666.3</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="6">
         <f t="shared" si="3"/>
         <v>1770.7</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="6">
         <f t="shared" si="3"/>
         <v>5063.2</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="6">
         <f t="shared" si="3"/>
         <v>18898.5</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="6">
         <f t="shared" si="3"/>
         <v>52391.5</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="7">
         <f t="shared" si="3"/>
         <v>280535.3</v>
       </c>
-      <c r="AG16">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="6">
         <f>SUM(AG6:AG15)/10</f>
         <v>0.5</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="6">
         <f t="shared" ref="AH16:AQ16" si="4">SUM(AH6:AH15)/10</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="6">
         <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="6">
         <f t="shared" si="4"/>
         <v>3.7</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="6">
         <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="6">
         <f t="shared" si="4"/>
         <v>23.8</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="6">
         <f t="shared" si="4"/>
         <v>48.7</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" s="6">
         <f t="shared" si="4"/>
         <v>119.2</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" s="6">
         <f t="shared" si="4"/>
         <v>285.3</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" s="7">
         <f t="shared" si="4"/>
         <v>540.79999999999995</v>
       </c>
@@ -14576,266 +18531,272 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="23" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="29"/>
+      <c r="E24" s="6">
         <f>E5</f>
         <v>1000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f t="shared" ref="F24:N24" si="5">F5</f>
         <v>2500</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <f t="shared" si="5"/>
         <v>25000</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="6">
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="6">
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="7">
         <f>O5</f>
         <v>1000000</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="R24" s="33"/>
+      <c r="S24" s="5">
         <f>S5</f>
         <v>1000</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="6">
         <f t="shared" ref="T24:AB24" si="6">T5</f>
         <v>2500</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="6">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="6">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="6">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="6">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="6">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="6">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="6">
         <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="6">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="7">
         <f>AC5</f>
         <v>1000000</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG24">
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="24">
         <f>AG5</f>
         <v>1000</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="6">
         <f t="shared" ref="AH24:AP24" si="7">AH5</f>
         <v>2500</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="6">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="6">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="6">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="6">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" s="6">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="6">
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="AO24">
+      <c r="AO24" s="6">
         <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-      <c r="AP24">
+      <c r="AP24" s="6">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ24" s="7">
         <f>AQ5</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="25" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C25">
+      <c r="C25" s="15">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D25" s="16"/>
+      <c r="E25" s="30">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>7</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <v>12</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>20</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>29</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <v>55</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="3">
         <v>122</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="3">
         <v>268</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>538</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="9">
         <v>1018</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="8">
         <v>1</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1">
+      <c r="R25" s="28"/>
+      <c r="S25" s="30">
         <v>0</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="3">
         <v>1</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="3">
         <v>4</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="3">
         <v>7</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="3">
         <v>11</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="3">
         <v>17</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="3">
         <v>35</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25" s="3">
         <v>74</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25" s="3">
         <v>187</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="3">
         <v>386</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25" s="9">
         <v>791</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="8">
         <v>1</v>
       </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1">
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="30">
         <v>0</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25" s="3">
         <v>0</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="3">
         <v>1</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="3">
         <v>1</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" s="3">
         <v>2</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AL25" s="3">
         <v>4</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AM25" s="3">
         <v>8</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AN25" s="3">
         <v>15</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="3">
         <v>42</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AP25" s="3">
         <v>86</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="9">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C26">
+      <c r="C26" s="8">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="17"/>
+      <c r="E26" s="31">
         <v>2</v>
       </c>
       <c r="F26" s="1">
@@ -14865,14 +18826,14 @@
       <c r="N26" s="1">
         <v>555</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="10">
         <v>1063</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="8">
         <v>2</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1">
+      <c r="R26" s="28"/>
+      <c r="S26" s="31">
         <v>1</v>
       </c>
       <c r="T26" s="1">
@@ -14902,14 +18863,14 @@
       <c r="AB26" s="1">
         <v>389</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="10">
         <v>816</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="8">
         <v>2</v>
       </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1">
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="31">
         <v>0</v>
       </c>
       <c r="AH26" s="1">
@@ -14939,15 +18900,16 @@
       <c r="AP26" s="1">
         <v>81</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="10">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C27">
+      <c r="C27" s="8">
         <v>3</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D27" s="17"/>
+      <c r="E27" s="31">
         <v>2</v>
       </c>
       <c r="F27" s="1">
@@ -14977,14 +18939,14 @@
       <c r="N27" s="1">
         <v>527</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="10">
         <v>1120</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="8">
         <v>3</v>
       </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1">
+      <c r="R27" s="28"/>
+      <c r="S27" s="31">
         <v>0</v>
       </c>
       <c r="T27" s="1">
@@ -15014,14 +18976,14 @@
       <c r="AB27" s="1">
         <v>384</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27" s="10">
         <v>802</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="8">
         <v>3</v>
       </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1">
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="31">
         <v>0</v>
       </c>
       <c r="AH27" s="1">
@@ -15051,15 +19013,16 @@
       <c r="AP27" s="1">
         <v>75</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AQ27" s="10">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C28">
+      <c r="C28" s="8">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="17"/>
+      <c r="E28" s="31">
         <v>2</v>
       </c>
       <c r="F28" s="1">
@@ -15089,14 +19052,14 @@
       <c r="N28" s="1">
         <v>511</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="10">
         <v>1039</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="8">
         <v>4</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1">
+      <c r="R28" s="28"/>
+      <c r="S28" s="31">
         <v>1</v>
       </c>
       <c r="T28" s="1">
@@ -15126,14 +19089,14 @@
       <c r="AB28" s="1">
         <v>386</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AC28" s="10">
         <v>821</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="8">
         <v>4</v>
       </c>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1">
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="31">
         <v>0</v>
       </c>
       <c r="AH28" s="1">
@@ -15163,15 +19126,16 @@
       <c r="AP28" s="1">
         <v>84</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AQ28" s="10">
         <v>164</v>
       </c>
     </row>
     <row r="29" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C29">
+      <c r="C29" s="8">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="17"/>
+      <c r="E29" s="31">
         <v>1</v>
       </c>
       <c r="F29" s="1">
@@ -15201,14 +19165,14 @@
       <c r="N29" s="1">
         <v>544</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="10">
         <v>1079</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="8">
         <v>5</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1">
+      <c r="R29" s="28"/>
+      <c r="S29" s="31">
         <v>1</v>
       </c>
       <c r="T29" s="1">
@@ -15238,14 +19202,14 @@
       <c r="AB29" s="1">
         <v>386</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="10">
         <v>792</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="8">
         <v>5</v>
       </c>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1">
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="31">
         <v>0</v>
       </c>
       <c r="AH29" s="1">
@@ -15275,15 +19239,16 @@
       <c r="AP29" s="1">
         <v>82</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AQ29" s="10">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C30">
+      <c r="C30" s="8">
         <v>6</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="17"/>
+      <c r="E30" s="31">
         <v>2</v>
       </c>
       <c r="F30" s="1">
@@ -15313,14 +19278,14 @@
       <c r="N30" s="1">
         <v>523</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="10">
         <v>1077</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="8">
         <v>6</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1">
+      <c r="R30" s="28"/>
+      <c r="S30" s="31">
         <v>0</v>
       </c>
       <c r="T30" s="1">
@@ -15350,14 +19315,14 @@
       <c r="AB30" s="1">
         <v>385</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30" s="10">
         <v>798</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="8">
         <v>6</v>
       </c>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1">
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="31">
         <v>0</v>
       </c>
       <c r="AH30" s="1">
@@ -15387,15 +19352,16 @@
       <c r="AP30" s="1">
         <v>79</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AQ30" s="10">
         <v>155</v>
       </c>
     </row>
     <row r="31" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C31">
+      <c r="C31" s="8">
         <v>7</v>
       </c>
-      <c r="E31" s="1">
+      <c r="D31" s="17"/>
+      <c r="E31" s="31">
         <v>2</v>
       </c>
       <c r="F31" s="1">
@@ -15425,14 +19391,14 @@
       <c r="N31" s="1">
         <v>570</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="10">
         <v>1089</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="8">
         <v>7</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1">
+      <c r="R31" s="28"/>
+      <c r="S31" s="31">
         <v>1</v>
       </c>
       <c r="T31" s="1">
@@ -15462,14 +19428,14 @@
       <c r="AB31" s="1">
         <v>383</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC31" s="10">
         <v>789</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="8">
         <v>7</v>
       </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1">
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="31">
         <v>0</v>
       </c>
       <c r="AH31" s="1">
@@ -15499,15 +19465,16 @@
       <c r="AP31" s="1">
         <v>78</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AQ31" s="10">
         <v>162</v>
       </c>
     </row>
     <row r="32" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C32">
+      <c r="C32" s="8">
         <v>8</v>
       </c>
-      <c r="E32" s="1">
+      <c r="D32" s="17"/>
+      <c r="E32" s="31">
         <v>2</v>
       </c>
       <c r="F32" s="1">
@@ -15537,14 +19504,14 @@
       <c r="N32" s="1">
         <v>529</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="10">
         <v>1097</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="8">
         <v>8</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1">
+      <c r="R32" s="28"/>
+      <c r="S32" s="31">
         <v>1</v>
       </c>
       <c r="T32" s="1">
@@ -15574,14 +19541,14 @@
       <c r="AB32" s="1">
         <v>387</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32" s="10">
         <v>821</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="8">
         <v>8</v>
       </c>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1">
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="31">
         <v>0</v>
       </c>
       <c r="AH32" s="1">
@@ -15611,15 +19578,16 @@
       <c r="AP32" s="1">
         <v>84</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AQ32" s="10">
         <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C33">
+      <c r="C33" s="8">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D33" s="17"/>
+      <c r="E33" s="31">
         <v>2</v>
       </c>
       <c r="F33" s="1">
@@ -15649,14 +19617,14 @@
       <c r="N33" s="1">
         <v>535</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="10">
         <v>1151</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="8">
         <v>9</v>
       </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1">
+      <c r="R33" s="28"/>
+      <c r="S33" s="31">
         <v>0</v>
       </c>
       <c r="T33" s="1">
@@ -15686,14 +19654,14 @@
       <c r="AB33" s="1">
         <v>387</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AC33" s="10">
         <v>825</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="8">
         <v>9</v>
       </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1">
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="31">
         <v>0</v>
       </c>
       <c r="AH33" s="1">
@@ -15723,252 +19691,259 @@
       <c r="AP33" s="1">
         <v>86</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AQ33" s="10">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C34">
+    <row r="34" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="8">
         <v>10</v>
       </c>
-      <c r="E34" s="1">
+      <c r="D34" s="17"/>
+      <c r="E34" s="32">
         <v>1</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="26">
         <v>4</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="26">
         <v>8</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="26">
         <v>15</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="26">
         <v>20</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="26">
         <v>28</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="26">
         <v>58</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="26">
         <v>115</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="26">
         <v>271</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="26">
         <v>561</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="27">
         <v>1099</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="8">
         <v>10</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1">
+      <c r="R34" s="28"/>
+      <c r="S34" s="32">
         <v>1</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34" s="26">
         <v>1</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="26">
         <v>4</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="26">
         <v>7</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34" s="26">
         <v>10</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="26">
         <v>18</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34" s="26">
         <v>34</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z34" s="26">
         <v>75</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AA34" s="26">
         <v>184</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AB34" s="26">
         <v>388</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AC34" s="27">
         <v>811</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="8">
         <v>10</v>
       </c>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1">
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="32">
         <v>0</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AH34" s="26">
         <v>1</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AI34" s="26">
         <v>1</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AJ34" s="26">
         <v>1</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AK34" s="26">
         <v>3</v>
       </c>
-      <c r="AL34" s="1">
+      <c r="AL34" s="26">
         <v>3</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AM34" s="26">
         <v>8</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AN34" s="26">
         <v>15</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AO34" s="26">
         <v>40</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="AP34" s="26">
         <v>89</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AQ34" s="27">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="E35">
+    <row r="35" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="5">
         <f t="shared" ref="E35:O35" si="8">SUM(E25:E34)/10</f>
         <v>1.7</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <f t="shared" si="8"/>
         <v>3.4</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6">
         <f t="shared" si="8"/>
         <v>8.1</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <f t="shared" si="8"/>
         <v>13.9</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="6">
         <f t="shared" si="8"/>
         <v>21.1</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="6">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="6">
         <f t="shared" si="8"/>
         <v>57.6</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <f t="shared" si="8"/>
         <v>122.4</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="6">
         <f t="shared" si="8"/>
         <v>266.60000000000002</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="6">
         <f t="shared" si="8"/>
         <v>539.29999999999995</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="7">
         <f t="shared" si="8"/>
         <v>1083.2</v>
       </c>
-      <c r="S35">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="24">
         <f>SUM(S25:S34)/10</f>
         <v>0.6</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="6">
         <f>SUM(T25:T34)/10</f>
         <v>1.6</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="6">
         <f>SUM(U25:U34)/10</f>
         <v>3.5</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="6">
         <f>SUM(V25:V34)/10</f>
         <v>7.2</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="6">
         <f>SUM(W25:W34)/10</f>
         <v>10.6</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="6">
         <f t="shared" ref="X35:AC35" si="9">SUM(X25:X34)/10</f>
         <v>17.899999999999999</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="6">
         <f t="shared" si="9"/>
         <v>34.700000000000003</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="6">
         <f t="shared" si="9"/>
         <v>73.3</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="6">
         <f t="shared" si="9"/>
         <v>184.8</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="6">
         <f t="shared" si="9"/>
         <v>386.1</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="7">
         <f t="shared" si="9"/>
         <v>806.6</v>
       </c>
-      <c r="AG35">
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="24">
         <f t="shared" ref="AG35:AQ35" si="10">SUM(AG25:AG34)/10</f>
         <v>0</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="6">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="6">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" s="6">
         <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" s="6">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" s="6">
         <f t="shared" si="10"/>
         <v>3.4</v>
       </c>
-      <c r="AM35">
+      <c r="AM35" s="6">
         <f t="shared" si="10"/>
         <v>7.6</v>
       </c>
-      <c r="AN35">
+      <c r="AN35" s="6">
         <f t="shared" si="10"/>
         <v>15.7</v>
       </c>
-      <c r="AO35">
+      <c r="AO35" s="6">
         <f t="shared" si="10"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="AP35">
+      <c r="AP35" s="6">
         <f t="shared" si="10"/>
         <v>82.4</v>
       </c>
-      <c r="AQ35">
+      <c r="AQ35" s="7">
         <f t="shared" si="10"/>
         <v>156.19999999999999</v>
       </c>
@@ -15993,264 +19968,272 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="42" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="33"/>
+      <c r="E43" s="5">
         <f>E24</f>
         <v>1000</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <f t="shared" ref="F43:N43" si="11">F24</f>
         <v>2500</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="6">
         <f t="shared" si="11"/>
         <v>5000</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="6">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="6">
         <f t="shared" si="11"/>
         <v>15000</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="6">
         <f t="shared" si="11"/>
         <v>25000</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="6">
         <f t="shared" si="11"/>
         <v>50000</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="6">
         <f t="shared" si="11"/>
         <v>100000</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="6">
         <f t="shared" si="11"/>
         <v>250000</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="6">
         <f t="shared" si="11"/>
         <v>500000</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="7">
         <f>O24</f>
         <v>1000000</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S43">
+      <c r="R43" s="16"/>
+      <c r="S43" s="24">
         <f>S24</f>
         <v>1000</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="6">
         <f t="shared" ref="T43:AB43" si="12">T24</f>
         <v>2500</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="6">
         <f t="shared" si="12"/>
         <v>5000</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="6">
         <f t="shared" si="12"/>
         <v>10000</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="6">
         <f t="shared" si="12"/>
         <v>15000</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="6">
         <f t="shared" si="12"/>
         <v>25000</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="6">
         <f t="shared" si="12"/>
         <v>50000</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="6">
         <f t="shared" si="12"/>
         <v>100000</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="6">
         <f t="shared" si="12"/>
         <v>250000</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="6">
         <f t="shared" si="12"/>
         <v>500000</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="7">
         <f>AC24</f>
         <v>1000000</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AE43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG43">
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="24">
         <f>AG24</f>
         <v>1000</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="6">
         <f t="shared" ref="AH43:AP43" si="13">AH24</f>
         <v>2500</v>
       </c>
-      <c r="AI43">
+      <c r="AI43" s="6">
         <f t="shared" si="13"/>
         <v>5000</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ43" s="6">
         <f t="shared" si="13"/>
         <v>10000</v>
       </c>
-      <c r="AK43">
+      <c r="AK43" s="6">
         <f t="shared" si="13"/>
         <v>15000</v>
       </c>
-      <c r="AL43">
+      <c r="AL43" s="6">
         <f t="shared" si="13"/>
         <v>25000</v>
       </c>
-      <c r="AM43">
+      <c r="AM43" s="6">
         <f t="shared" si="13"/>
         <v>50000</v>
       </c>
-      <c r="AN43">
+      <c r="AN43" s="6">
         <f t="shared" si="13"/>
         <v>100000</v>
       </c>
-      <c r="AO43">
+      <c r="AO43" s="6">
         <f t="shared" si="13"/>
         <v>250000</v>
       </c>
-      <c r="AP43">
+      <c r="AP43" s="6">
         <f t="shared" si="13"/>
         <v>500000</v>
       </c>
-      <c r="AQ43">
+      <c r="AQ43" s="7">
         <f>AQ24</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="44" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C44">
+      <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="1">
+      <c r="D44" s="17"/>
+      <c r="E44" s="30">
         <v>1</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>4</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <v>8</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <v>12</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <v>17</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="3">
         <v>46</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>99</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="3">
         <v>202</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="3">
         <v>549</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="3">
         <v>1081</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="9">
         <v>1994</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="8">
         <v>1</v>
       </c>
-      <c r="S44" s="1">
+      <c r="R44" s="17"/>
+      <c r="S44" s="30">
         <v>1</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44" s="3">
         <v>3</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U44" s="3">
         <v>7</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V44" s="3">
         <v>15</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="3">
         <v>21</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="3">
         <v>37</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y44" s="3">
         <v>77</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z44" s="3">
         <v>167</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AA44" s="3">
         <v>417</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AB44" s="3">
         <v>886</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AC44" s="9">
         <v>2333</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="8">
         <v>1</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="23">
         <v>0</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AH44" s="3">
         <v>1</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AI44" s="3">
         <v>1</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AJ44" s="3">
         <v>2</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AK44" s="3">
         <v>3</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="AL44" s="3">
         <v>4</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AM44" s="3">
         <v>9</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AN44" s="3">
         <v>18</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="AO44" s="3">
         <v>45</v>
       </c>
-      <c r="AP44" s="1">
+      <c r="AP44" s="3">
         <v>100</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="AQ44" s="9">
         <v>201</v>
       </c>
     </row>
     <row r="45" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C45">
+      <c r="C45" s="8">
         <v>2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="D45" s="17"/>
+      <c r="E45" s="31">
         <v>1</v>
       </c>
       <c r="F45" s="1">
@@ -16280,13 +20263,14 @@
       <c r="N45" s="1">
         <v>1097</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="10">
         <v>2058</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="8">
         <v>2</v>
       </c>
-      <c r="S45" s="1">
+      <c r="R45" s="17"/>
+      <c r="S45" s="31">
         <v>2</v>
       </c>
       <c r="T45" s="1">
@@ -16316,13 +20300,14 @@
       <c r="AB45" s="1">
         <v>897</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AC45" s="10">
         <v>2290</v>
       </c>
-      <c r="AE45">
+      <c r="AE45" s="8">
         <v>2</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="22">
         <v>0</v>
       </c>
       <c r="AH45" s="1">
@@ -16352,15 +20337,16 @@
       <c r="AP45" s="1">
         <v>101</v>
       </c>
-      <c r="AQ45" s="1">
+      <c r="AQ45" s="10">
         <v>201</v>
       </c>
     </row>
     <row r="46" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C46">
+      <c r="C46" s="8">
         <v>3</v>
       </c>
-      <c r="E46" s="1">
+      <c r="D46" s="17"/>
+      <c r="E46" s="31">
         <v>2</v>
       </c>
       <c r="F46" s="1">
@@ -16390,13 +20376,14 @@
       <c r="N46" s="1">
         <v>1131</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="10">
         <v>2092</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="8">
         <v>3</v>
       </c>
-      <c r="S46" s="1">
+      <c r="R46" s="17"/>
+      <c r="S46" s="31">
         <v>1</v>
       </c>
       <c r="T46" s="1">
@@ -16426,13 +20413,14 @@
       <c r="AB46" s="1">
         <v>887</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AC46" s="10">
         <v>2317</v>
       </c>
-      <c r="AE46">
+      <c r="AE46" s="8">
         <v>3</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="22">
         <v>0</v>
       </c>
       <c r="AH46" s="1">
@@ -16462,15 +20450,16 @@
       <c r="AP46" s="1">
         <v>98</v>
       </c>
-      <c r="AQ46" s="1">
+      <c r="AQ46" s="10">
         <v>203</v>
       </c>
     </row>
     <row r="47" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C47">
+      <c r="C47" s="8">
         <v>4</v>
       </c>
-      <c r="E47" s="1">
+      <c r="D47" s="17"/>
+      <c r="E47" s="31">
         <v>1</v>
       </c>
       <c r="F47" s="1">
@@ -16500,13 +20489,14 @@
       <c r="N47" s="1">
         <v>1122</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="10">
         <v>2038</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="8">
         <v>4</v>
       </c>
-      <c r="S47" s="1">
+      <c r="R47" s="17"/>
+      <c r="S47" s="31">
         <v>1</v>
       </c>
       <c r="T47" s="1">
@@ -16536,13 +20526,14 @@
       <c r="AB47" s="1">
         <v>878</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AC47" s="10">
         <v>2313</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" s="8">
         <v>4</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="22">
         <v>0</v>
       </c>
       <c r="AH47" s="1">
@@ -16572,15 +20563,16 @@
       <c r="AP47" s="1">
         <v>99</v>
       </c>
-      <c r="AQ47" s="1">
+      <c r="AQ47" s="10">
         <v>216</v>
       </c>
     </row>
     <row r="48" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C48">
+      <c r="C48" s="8">
         <v>5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="D48" s="17"/>
+      <c r="E48" s="31">
         <v>1</v>
       </c>
       <c r="F48" s="1">
@@ -16610,13 +20602,14 @@
       <c r="N48" s="1">
         <v>1095</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="10">
         <v>2041</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="8">
         <v>5</v>
       </c>
-      <c r="S48" s="1">
+      <c r="R48" s="17"/>
+      <c r="S48" s="31">
         <v>1</v>
       </c>
       <c r="T48" s="1">
@@ -16646,13 +20639,14 @@
       <c r="AB48" s="1">
         <v>895</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AC48" s="10">
         <v>2331</v>
       </c>
-      <c r="AE48">
+      <c r="AE48" s="8">
         <v>5</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="22">
         <v>0</v>
       </c>
       <c r="AH48" s="1">
@@ -16682,15 +20676,16 @@
       <c r="AP48" s="1">
         <v>102</v>
       </c>
-      <c r="AQ48" s="1">
+      <c r="AQ48" s="10">
         <v>209</v>
       </c>
     </row>
     <row r="49" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C49">
+      <c r="C49" s="8">
         <v>6</v>
       </c>
-      <c r="E49" s="1">
+      <c r="D49" s="17"/>
+      <c r="E49" s="31">
         <v>1</v>
       </c>
       <c r="F49" s="1">
@@ -16720,13 +20715,14 @@
       <c r="N49" s="1">
         <v>1097</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="10">
         <v>1999</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="8">
         <v>6</v>
       </c>
-      <c r="S49" s="1">
+      <c r="R49" s="17"/>
+      <c r="S49" s="31">
         <v>1</v>
       </c>
       <c r="T49" s="1">
@@ -16756,13 +20752,14 @@
       <c r="AB49" s="1">
         <v>880</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AC49" s="10">
         <v>2299</v>
       </c>
-      <c r="AE49">
+      <c r="AE49" s="8">
         <v>6</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="22">
         <v>0</v>
       </c>
       <c r="AH49" s="1">
@@ -16792,15 +20789,16 @@
       <c r="AP49" s="1">
         <v>100</v>
       </c>
-      <c r="AQ49" s="1">
+      <c r="AQ49" s="10">
         <v>207</v>
       </c>
     </row>
     <row r="50" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C50">
+      <c r="C50" s="8">
         <v>7</v>
       </c>
-      <c r="E50" s="1">
+      <c r="D50" s="17"/>
+      <c r="E50" s="31">
         <v>2</v>
       </c>
       <c r="F50" s="1">
@@ -16830,13 +20828,14 @@
       <c r="N50" s="1">
         <v>1121</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="10">
         <v>2047</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="8">
         <v>7</v>
       </c>
-      <c r="S50" s="1">
+      <c r="R50" s="17"/>
+      <c r="S50" s="31">
         <v>2</v>
       </c>
       <c r="T50" s="1">
@@ -16866,13 +20865,14 @@
       <c r="AB50" s="1">
         <v>879</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC50" s="10">
         <v>2324</v>
       </c>
-      <c r="AE50">
+      <c r="AE50" s="8">
         <v>7</v>
       </c>
-      <c r="AG50" s="1">
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="22">
         <v>0</v>
       </c>
       <c r="AH50" s="1">
@@ -16902,15 +20902,16 @@
       <c r="AP50" s="1">
         <v>108</v>
       </c>
-      <c r="AQ50" s="1">
+      <c r="AQ50" s="10">
         <v>204</v>
       </c>
     </row>
     <row r="51" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C51">
+      <c r="C51" s="8">
         <v>8</v>
       </c>
-      <c r="E51" s="1">
+      <c r="D51" s="17"/>
+      <c r="E51" s="31">
         <v>2</v>
       </c>
       <c r="F51" s="1">
@@ -16940,13 +20941,14 @@
       <c r="N51" s="1">
         <v>1125</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="10">
         <v>2022</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="8">
         <v>8</v>
       </c>
-      <c r="S51" s="1">
+      <c r="R51" s="17"/>
+      <c r="S51" s="31">
         <v>1</v>
       </c>
       <c r="T51" s="1">
@@ -16976,13 +20978,14 @@
       <c r="AB51" s="1">
         <v>892</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AC51" s="10">
         <v>2327</v>
       </c>
-      <c r="AE51">
+      <c r="AE51" s="8">
         <v>8</v>
       </c>
-      <c r="AG51" s="1">
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="22">
         <v>0</v>
       </c>
       <c r="AH51" s="1">
@@ -17012,15 +21015,16 @@
       <c r="AP51" s="1">
         <v>97</v>
       </c>
-      <c r="AQ51" s="1">
+      <c r="AQ51" s="10">
         <v>218</v>
       </c>
     </row>
     <row r="52" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C52">
+      <c r="C52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="1">
+      <c r="D52" s="17"/>
+      <c r="E52" s="31">
         <v>2</v>
       </c>
       <c r="F52" s="1">
@@ -17050,13 +21054,14 @@
       <c r="N52" s="1">
         <v>1108</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="10">
         <v>2101</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="8">
         <v>9</v>
       </c>
-      <c r="S52" s="1">
+      <c r="R52" s="17"/>
+      <c r="S52" s="31">
         <v>1</v>
       </c>
       <c r="T52" s="1">
@@ -17086,13 +21091,14 @@
       <c r="AB52" s="1">
         <v>885</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AC52" s="10">
         <v>2315</v>
       </c>
-      <c r="AE52">
+      <c r="AE52" s="8">
         <v>9</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="22">
         <v>0</v>
       </c>
       <c r="AH52" s="1">
@@ -17122,250 +21128,259 @@
       <c r="AP52" s="1">
         <v>115</v>
       </c>
-      <c r="AQ52" s="1">
+      <c r="AQ52" s="10">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C53">
+    <row r="53" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="8">
         <v>10</v>
       </c>
-      <c r="E53" s="1">
+      <c r="D53" s="17"/>
+      <c r="E53" s="32">
         <v>2</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="26">
         <v>4</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="26">
         <v>9</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="26">
         <v>15</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="26">
         <v>18</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="26">
         <v>46</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="26">
         <v>98</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="26">
         <v>209</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="26">
         <v>544</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="26">
         <v>1095</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="27">
         <v>1995</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="8">
         <v>10</v>
       </c>
-      <c r="S53" s="1">
+      <c r="R53" s="17"/>
+      <c r="S53" s="32">
         <v>1</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T53" s="26">
         <v>4</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U53" s="26">
         <v>8</v>
       </c>
-      <c r="V53" s="1">
+      <c r="V53" s="26">
         <v>15</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="26">
         <v>21</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X53" s="26">
         <v>35</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="26">
         <v>76</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="Z53" s="26">
         <v>163</v>
       </c>
-      <c r="AA53" s="1">
+      <c r="AA53" s="26">
         <v>421</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AB53" s="26">
         <v>891</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AC53" s="27">
         <v>2300</v>
       </c>
-      <c r="AE53">
+      <c r="AE53" s="8">
         <v>10</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="25">
         <v>1</v>
       </c>
-      <c r="AH53" s="1">
+      <c r="AH53" s="26">
         <v>0</v>
       </c>
-      <c r="AI53" s="1">
+      <c r="AI53" s="26">
         <v>0</v>
       </c>
-      <c r="AJ53" s="1">
+      <c r="AJ53" s="26">
         <v>1</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AK53" s="26">
         <v>3</v>
       </c>
-      <c r="AL53" s="1">
+      <c r="AL53" s="26">
         <v>5</v>
       </c>
-      <c r="AM53" s="1">
+      <c r="AM53" s="26">
         <v>9</v>
       </c>
-      <c r="AN53" s="1">
+      <c r="AN53" s="26">
         <v>16</v>
       </c>
-      <c r="AO53" s="1">
+      <c r="AO53" s="26">
         <v>46</v>
       </c>
-      <c r="AP53" s="1">
+      <c r="AP53" s="26">
         <v>108</v>
       </c>
-      <c r="AQ53" s="1">
+      <c r="AQ53" s="27">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="E54">
+    <row r="54" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="11"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="5">
         <f t="shared" ref="E54:O54" si="14">SUM(E44:E53)/10</f>
         <v>1.5</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <f t="shared" si="14"/>
         <v>4.3</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="6">
         <f t="shared" si="14"/>
         <v>8.5</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="6">
         <f t="shared" si="14"/>
         <v>13.9</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="6">
         <f t="shared" si="14"/>
         <v>17.7</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="6">
         <f t="shared" si="14"/>
         <v>46.8</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="6">
         <f t="shared" si="14"/>
         <v>99.7</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="6">
         <f t="shared" si="14"/>
         <v>210.9</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="6">
         <f t="shared" si="14"/>
         <v>549.70000000000005</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="6">
         <f t="shared" si="14"/>
         <v>1107.2</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="7">
         <f t="shared" si="14"/>
         <v>2038.7</v>
       </c>
-      <c r="S54">
+      <c r="Q54" s="11"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="24">
         <f t="shared" ref="S54:AC54" si="15">SUM(S44:S53)/10</f>
         <v>1.2</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="6">
         <f t="shared" si="15"/>
         <v>3.2</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="6">
         <f t="shared" si="15"/>
         <v>7.9</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="6">
         <f t="shared" si="15"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="6">
         <f t="shared" si="15"/>
         <v>21.7</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="6">
         <f t="shared" si="15"/>
         <v>35.5</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="6">
         <f t="shared" si="15"/>
         <v>76.7</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="6">
         <f t="shared" si="15"/>
         <v>164.1</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="6">
         <f t="shared" si="15"/>
         <v>422.3</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" s="6">
         <f t="shared" si="15"/>
         <v>887</v>
       </c>
-      <c r="AC54">
+      <c r="AC54" s="7">
         <f t="shared" si="15"/>
         <v>2314.9</v>
       </c>
-      <c r="AG54">
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="24">
         <f t="shared" ref="AG54:AQ54" si="16">SUM(AG44:AG53)/10</f>
         <v>0.1</v>
       </c>
-      <c r="AH54">
+      <c r="AH54" s="6">
         <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
-      <c r="AI54">
+      <c r="AI54" s="6">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="AJ54">
+      <c r="AJ54" s="6">
         <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
-      <c r="AK54">
+      <c r="AK54" s="6">
         <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
-      <c r="AL54">
+      <c r="AL54" s="6">
         <f t="shared" si="16"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AM54">
+      <c r="AM54" s="6">
         <f t="shared" si="16"/>
         <v>8.9</v>
       </c>
-      <c r="AN54">
+      <c r="AN54" s="6">
         <f t="shared" si="16"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="AO54">
+      <c r="AO54" s="6">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
-      <c r="AP54">
+      <c r="AP54" s="6">
         <f t="shared" si="16"/>
         <v>102.8</v>
       </c>
-      <c r="AQ54">
+      <c r="AQ54" s="7">
         <f t="shared" si="16"/>
         <v>208.6</v>
       </c>
@@ -17390,231 +21405,239 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
+    <row r="92" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E93">
+      <c r="D93" s="33"/>
+      <c r="E93" s="24">
         <v>1000</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="6">
         <v>2500</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="6">
         <v>5000</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="6">
         <v>10000</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="6">
         <v>15000</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="6">
         <v>25000</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="6">
         <v>50000</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="6">
         <v>100000</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="6">
         <v>250000</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="6">
         <v>500000</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="7">
         <v>1000000</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="Q93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S93">
+      <c r="R93" s="33"/>
+      <c r="S93" s="5">
         <v>1000</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="6">
         <v>2500</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="6">
         <v>5000</v>
       </c>
-      <c r="V93">
+      <c r="V93" s="6">
         <v>10000</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="6">
         <v>15000</v>
       </c>
-      <c r="X93">
+      <c r="X93" s="6">
         <v>25000</v>
       </c>
-      <c r="Y93">
+      <c r="Y93" s="6">
         <v>50000</v>
       </c>
-      <c r="Z93">
+      <c r="Z93" s="6">
         <v>100000</v>
       </c>
-      <c r="AA93">
+      <c r="AA93" s="6">
         <v>250000</v>
       </c>
-      <c r="AB93">
+      <c r="AB93" s="6">
         <v>500000</v>
       </c>
-      <c r="AC93">
+      <c r="AC93" s="7">
         <v>1000000</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AE93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG93">
+      <c r="AF93" s="33"/>
+      <c r="AG93" s="24">
         <v>1000</v>
       </c>
-      <c r="AH93">
+      <c r="AH93" s="6">
         <v>2500</v>
       </c>
-      <c r="AI93">
+      <c r="AI93" s="6">
         <v>5000</v>
       </c>
-      <c r="AJ93">
+      <c r="AJ93" s="6">
         <v>10000</v>
       </c>
-      <c r="AK93">
+      <c r="AK93" s="6">
         <v>15000</v>
       </c>
-      <c r="AL93">
+      <c r="AL93" s="6">
         <v>25000</v>
       </c>
-      <c r="AM93">
+      <c r="AM93" s="6">
         <v>50000</v>
       </c>
-      <c r="AN93">
+      <c r="AN93" s="6">
         <v>100000</v>
       </c>
-      <c r="AO93">
+      <c r="AO93" s="6">
         <v>250000</v>
       </c>
-      <c r="AP93">
+      <c r="AP93" s="6">
         <v>500000</v>
       </c>
-      <c r="AQ93">
+      <c r="AQ93" s="7">
         <v>1000000</v>
       </c>
     </row>
     <row r="94" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C94">
+      <c r="C94" s="8">
         <v>1</v>
       </c>
-      <c r="E94" s="1">
+      <c r="D94" s="17"/>
+      <c r="E94" s="30">
         <v>6</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="3">
         <v>17</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="3">
         <v>36</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <v>73</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="3">
         <v>113</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="3">
         <v>198</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K94" s="3">
         <v>411</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L94" s="3">
         <v>856</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94" s="3">
         <v>2204</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N94" s="3">
         <v>4383</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O94" s="9">
         <v>7874</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="8">
         <v>1</v>
       </c>
-      <c r="S94" s="1">
+      <c r="R94" s="17"/>
+      <c r="S94" s="30">
         <v>6</v>
       </c>
-      <c r="T94" s="1">
+      <c r="T94" s="3">
         <v>17</v>
       </c>
-      <c r="U94" s="1">
+      <c r="U94" s="3">
         <v>37</v>
       </c>
-      <c r="V94" s="1">
+      <c r="V94" s="3">
         <v>76</v>
       </c>
-      <c r="W94" s="1">
+      <c r="W94" s="3">
         <v>116</v>
       </c>
-      <c r="X94" s="1">
+      <c r="X94" s="3">
         <v>195</v>
       </c>
-      <c r="Y94" s="1">
+      <c r="Y94" s="3">
         <v>411</v>
       </c>
-      <c r="Z94" s="1">
-        <v>901</v>
-      </c>
-      <c r="AA94" s="1">
-        <v>2756</v>
-      </c>
-      <c r="AB94" s="1">
+      <c r="Z94" s="3">
+        <v>961</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>1956</v>
+      </c>
+      <c r="AB94" s="3">
         <v>3636</v>
       </c>
-      <c r="AC94" s="1">
+      <c r="AC94" s="9">
         <v>10237</v>
       </c>
-      <c r="AE94">
+      <c r="AE94" s="8">
         <v>1</v>
       </c>
-      <c r="AG94" s="1">
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="23">
         <v>0</v>
       </c>
-      <c r="AH94" s="1">
+      <c r="AH94" s="3">
         <v>1</v>
       </c>
-      <c r="AI94" s="1">
+      <c r="AI94" s="3">
         <v>3</v>
       </c>
-      <c r="AJ94" s="1">
+      <c r="AJ94" s="3">
         <v>6</v>
       </c>
-      <c r="AK94" s="1">
+      <c r="AK94" s="3">
         <v>10</v>
       </c>
-      <c r="AL94" s="1">
+      <c r="AL94" s="3">
         <v>16</v>
       </c>
-      <c r="AM94" s="1">
+      <c r="AM94" s="3">
         <v>33</v>
       </c>
-      <c r="AN94" s="1">
+      <c r="AN94" s="3">
         <v>70</v>
       </c>
-      <c r="AO94" s="1">
+      <c r="AO94" s="3">
         <v>183</v>
       </c>
-      <c r="AP94" s="1">
+      <c r="AP94" s="3">
         <v>404</v>
       </c>
-      <c r="AQ94" s="1">
+      <c r="AQ94" s="9">
         <v>831</v>
       </c>
     </row>
     <row r="95" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C95">
+      <c r="C95" s="8">
         <v>2</v>
       </c>
-      <c r="E95" s="1">
+      <c r="D95" s="17"/>
+      <c r="E95" s="31">
         <v>6</v>
       </c>
       <c r="F95" s="1">
@@ -17644,13 +21667,14 @@
       <c r="N95" s="1">
         <v>4198</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="10">
         <v>7728</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="8">
         <v>2</v>
       </c>
-      <c r="S95" s="1">
+      <c r="R95" s="17"/>
+      <c r="S95" s="31">
         <v>6</v>
       </c>
       <c r="T95" s="1">
@@ -17672,21 +21696,22 @@
         <v>415</v>
       </c>
       <c r="Z95" s="1">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="AA95" s="1">
-        <v>2799</v>
+        <v>1999</v>
       </c>
       <c r="AB95" s="1">
         <v>3615</v>
       </c>
-      <c r="AC95" s="1">
+      <c r="AC95" s="10">
         <v>10407</v>
       </c>
-      <c r="AE95">
+      <c r="AE95" s="8">
         <v>2</v>
       </c>
-      <c r="AG95" s="1">
+      <c r="AF95" s="17"/>
+      <c r="AG95" s="22">
         <v>0</v>
       </c>
       <c r="AH95" s="1">
@@ -17716,15 +21741,16 @@
       <c r="AP95" s="1">
         <v>394</v>
       </c>
-      <c r="AQ95" s="1">
+      <c r="AQ95" s="10">
         <v>845</v>
       </c>
     </row>
     <row r="96" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C96">
+      <c r="C96" s="8">
         <v>3</v>
       </c>
-      <c r="E96" s="1">
+      <c r="D96" s="17"/>
+      <c r="E96" s="31">
         <v>6</v>
       </c>
       <c r="F96" s="1">
@@ -17754,13 +21780,14 @@
       <c r="N96" s="1">
         <v>4425</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="10">
         <v>7874</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" s="8">
         <v>3</v>
       </c>
-      <c r="S96" s="1">
+      <c r="R96" s="17"/>
+      <c r="S96" s="31">
         <v>6</v>
       </c>
       <c r="T96" s="1">
@@ -17782,21 +21809,22 @@
         <v>412</v>
       </c>
       <c r="Z96" s="1">
-        <v>912</v>
+        <v>872</v>
       </c>
       <c r="AA96" s="1">
-        <v>2804</v>
+        <v>2004</v>
       </c>
       <c r="AB96" s="1">
         <v>3605</v>
       </c>
-      <c r="AC96" s="1">
+      <c r="AC96" s="10">
         <v>10386</v>
       </c>
-      <c r="AE96">
+      <c r="AE96" s="8">
         <v>3</v>
       </c>
-      <c r="AG96" s="1">
+      <c r="AF96" s="17"/>
+      <c r="AG96" s="22">
         <v>0</v>
       </c>
       <c r="AH96" s="1">
@@ -17826,15 +21854,16 @@
       <c r="AP96" s="1">
         <v>389</v>
       </c>
-      <c r="AQ96" s="1">
+      <c r="AQ96" s="10">
         <v>897</v>
       </c>
     </row>
     <row r="97" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C97">
+      <c r="C97" s="8">
         <v>4</v>
       </c>
-      <c r="E97" s="1">
+      <c r="D97" s="17"/>
+      <c r="E97" s="31">
         <v>6</v>
       </c>
       <c r="F97" s="1">
@@ -17864,13 +21893,14 @@
       <c r="N97" s="1">
         <v>4328</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="10">
         <v>7683</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="8">
         <v>4</v>
       </c>
-      <c r="S97" s="1">
+      <c r="R97" s="17"/>
+      <c r="S97" s="31">
         <v>6</v>
       </c>
       <c r="T97" s="1">
@@ -17892,21 +21922,22 @@
         <v>412</v>
       </c>
       <c r="Z97" s="1">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="AA97" s="1">
-        <v>2798</v>
+        <v>1998</v>
       </c>
       <c r="AB97" s="1">
         <v>3654</v>
       </c>
-      <c r="AC97" s="1">
+      <c r="AC97" s="10">
         <v>10404</v>
       </c>
-      <c r="AE97">
+      <c r="AE97" s="8">
         <v>4</v>
       </c>
-      <c r="AG97" s="1">
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="22">
         <v>0</v>
       </c>
       <c r="AH97" s="1">
@@ -17936,15 +21967,16 @@
       <c r="AP97" s="1">
         <v>395</v>
       </c>
-      <c r="AQ97" s="1">
+      <c r="AQ97" s="10">
         <v>903</v>
       </c>
     </row>
     <row r="98" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C98">
+      <c r="C98" s="8">
         <v>5</v>
       </c>
-      <c r="E98" s="1">
+      <c r="D98" s="17"/>
+      <c r="E98" s="31">
         <v>6</v>
       </c>
       <c r="F98" s="1">
@@ -17974,13 +22006,14 @@
       <c r="N98" s="1">
         <v>4317</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="10">
         <v>7885</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="8">
         <v>5</v>
       </c>
-      <c r="S98" s="1">
+      <c r="R98" s="17"/>
+      <c r="S98" s="31">
         <v>6</v>
       </c>
       <c r="T98" s="1">
@@ -18002,21 +22035,22 @@
         <v>411</v>
       </c>
       <c r="Z98" s="1">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="AA98" s="1">
-        <v>2788</v>
+        <v>1988</v>
       </c>
       <c r="AB98" s="1">
         <v>3667</v>
       </c>
-      <c r="AC98" s="1">
+      <c r="AC98" s="10">
         <v>10539</v>
       </c>
-      <c r="AE98">
+      <c r="AE98" s="8">
         <v>5</v>
       </c>
-      <c r="AG98" s="1">
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="22">
         <v>0</v>
       </c>
       <c r="AH98" s="1">
@@ -18046,15 +22080,16 @@
       <c r="AP98" s="1">
         <v>401</v>
       </c>
-      <c r="AQ98" s="1">
+      <c r="AQ98" s="10">
         <v>856</v>
       </c>
     </row>
     <row r="99" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C99">
+      <c r="C99" s="8">
         <v>6</v>
       </c>
-      <c r="E99" s="1">
+      <c r="D99" s="17"/>
+      <c r="E99" s="31">
         <v>7</v>
       </c>
       <c r="F99" s="1">
@@ -18084,13 +22119,14 @@
       <c r="N99" s="1">
         <v>4296</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="10">
         <v>7856</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" s="8">
         <v>6</v>
       </c>
-      <c r="S99" s="1">
+      <c r="R99" s="17"/>
+      <c r="S99" s="31">
         <v>6</v>
       </c>
       <c r="T99" s="1">
@@ -18112,21 +22148,22 @@
         <v>415</v>
       </c>
       <c r="Z99" s="1">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="AA99" s="1">
-        <v>2809</v>
+        <v>2009</v>
       </c>
       <c r="AB99" s="1">
         <v>3663</v>
       </c>
-      <c r="AC99" s="1">
+      <c r="AC99" s="10">
         <v>10279</v>
       </c>
-      <c r="AE99">
+      <c r="AE99" s="8">
         <v>6</v>
       </c>
-      <c r="AG99" s="1">
+      <c r="AF99" s="17"/>
+      <c r="AG99" s="22">
         <v>0</v>
       </c>
       <c r="AH99" s="1">
@@ -18156,15 +22193,16 @@
       <c r="AP99" s="1">
         <v>395</v>
       </c>
-      <c r="AQ99" s="1">
+      <c r="AQ99" s="10">
         <v>874</v>
       </c>
     </row>
     <row r="100" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C100">
+      <c r="C100" s="8">
         <v>7</v>
       </c>
-      <c r="E100" s="1">
+      <c r="D100" s="17"/>
+      <c r="E100" s="31">
         <v>6</v>
       </c>
       <c r="F100" s="1">
@@ -18194,13 +22232,14 @@
       <c r="N100" s="1">
         <v>4305</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100" s="10">
         <v>7684</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" s="8">
         <v>7</v>
       </c>
-      <c r="S100" s="1">
+      <c r="R100" s="17"/>
+      <c r="S100" s="31">
         <v>6</v>
       </c>
       <c r="T100" s="1">
@@ -18222,21 +22261,22 @@
         <v>415</v>
       </c>
       <c r="Z100" s="1">
-        <v>914</v>
+        <v>874</v>
       </c>
       <c r="AA100" s="1">
-        <v>2754</v>
+        <v>1954</v>
       </c>
       <c r="AB100" s="1">
         <v>3678</v>
       </c>
-      <c r="AC100" s="1">
+      <c r="AC100" s="10">
         <v>10348</v>
       </c>
-      <c r="AE100">
+      <c r="AE100" s="8">
         <v>7</v>
       </c>
-      <c r="AG100" s="1">
+      <c r="AF100" s="17"/>
+      <c r="AG100" s="22">
         <v>0</v>
       </c>
       <c r="AH100" s="1">
@@ -18266,15 +22306,16 @@
       <c r="AP100" s="1">
         <v>396</v>
       </c>
-      <c r="AQ100" s="1">
+      <c r="AQ100" s="10">
         <v>868</v>
       </c>
     </row>
     <row r="101" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C101">
+      <c r="C101" s="8">
         <v>8</v>
       </c>
-      <c r="E101" s="1">
+      <c r="D101" s="17"/>
+      <c r="E101" s="31">
         <v>7</v>
       </c>
       <c r="F101" s="1">
@@ -18304,13 +22345,14 @@
       <c r="N101" s="1">
         <v>4300</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101" s="10">
         <v>7728</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="8">
         <v>8</v>
       </c>
-      <c r="S101" s="1">
+      <c r="R101" s="17"/>
+      <c r="S101" s="31">
         <v>6</v>
       </c>
       <c r="T101" s="1">
@@ -18332,21 +22374,22 @@
         <v>411</v>
       </c>
       <c r="Z101" s="1">
-        <v>921</v>
+        <v>881</v>
       </c>
       <c r="AA101" s="1">
-        <v>2754</v>
+        <v>1958</v>
       </c>
       <c r="AB101" s="1">
         <v>3589</v>
       </c>
-      <c r="AC101" s="1">
+      <c r="AC101" s="10">
         <v>10405</v>
       </c>
-      <c r="AE101">
+      <c r="AE101" s="8">
         <v>8</v>
       </c>
-      <c r="AG101" s="1">
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="22">
         <v>0</v>
       </c>
       <c r="AH101" s="1">
@@ -18376,15 +22419,16 @@
       <c r="AP101" s="1">
         <v>391</v>
       </c>
-      <c r="AQ101" s="1">
+      <c r="AQ101" s="10">
         <v>851</v>
       </c>
     </row>
     <row r="102" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C102">
+      <c r="C102" s="8">
         <v>9</v>
       </c>
-      <c r="E102" s="1">
+      <c r="D102" s="17"/>
+      <c r="E102" s="31">
         <v>6</v>
       </c>
       <c r="F102" s="1">
@@ -18414,13 +22458,14 @@
       <c r="N102" s="1">
         <v>4395</v>
       </c>
-      <c r="O102" s="1">
+      <c r="O102" s="10">
         <v>7832</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" s="8">
         <v>9</v>
       </c>
-      <c r="S102" s="1">
+      <c r="R102" s="17"/>
+      <c r="S102" s="31">
         <v>6</v>
       </c>
       <c r="T102" s="1">
@@ -18442,21 +22487,22 @@
         <v>413</v>
       </c>
       <c r="Z102" s="1">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="AA102" s="1">
-        <v>2846</v>
+        <v>2046</v>
       </c>
       <c r="AB102" s="1">
         <v>3610</v>
       </c>
-      <c r="AC102" s="1">
+      <c r="AC102" s="10">
         <v>10485</v>
       </c>
-      <c r="AE102">
+      <c r="AE102" s="8">
         <v>9</v>
       </c>
-      <c r="AG102" s="1">
+      <c r="AF102" s="17"/>
+      <c r="AG102" s="22">
         <v>0</v>
       </c>
       <c r="AH102" s="1">
@@ -18486,256 +22532,266 @@
       <c r="AP102" s="1">
         <v>388</v>
       </c>
-      <c r="AQ102" s="1">
+      <c r="AQ102" s="10">
         <v>835</v>
       </c>
     </row>
-    <row r="103" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="C103">
+    <row r="103" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="8">
         <v>10</v>
       </c>
-      <c r="E103" s="1">
+      <c r="D103" s="17"/>
+      <c r="E103" s="32">
         <v>6</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="26">
         <v>17</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="26">
         <v>36</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="26">
         <v>73</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="26">
         <v>112</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="26">
         <v>198</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K103" s="26">
         <v>411</v>
       </c>
-      <c r="L103" s="1">
+      <c r="L103" s="26">
         <v>861</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M103" s="26">
         <v>2159</v>
       </c>
-      <c r="N103" s="1">
+      <c r="N103" s="26">
         <v>4297</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="27">
         <v>7835</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" s="8">
         <v>10</v>
       </c>
-      <c r="S103" s="1">
+      <c r="R103" s="17"/>
+      <c r="S103" s="32">
         <v>6</v>
       </c>
-      <c r="T103" s="1">
+      <c r="T103" s="26">
         <v>18</v>
       </c>
-      <c r="U103" s="1">
+      <c r="U103" s="26">
         <v>38</v>
       </c>
-      <c r="V103" s="1">
+      <c r="V103" s="26">
         <v>77</v>
       </c>
-      <c r="W103" s="1">
+      <c r="W103" s="26">
         <v>114</v>
       </c>
-      <c r="X103" s="1">
+      <c r="X103" s="26">
         <v>195</v>
       </c>
-      <c r="Y103" s="1">
+      <c r="Y103" s="26">
         <v>412</v>
       </c>
-      <c r="Z103" s="1">
-        <v>901</v>
-      </c>
-      <c r="AA103" s="1">
-        <v>2814</v>
-      </c>
-      <c r="AB103" s="1">
+      <c r="Z103" s="26">
+        <v>861</v>
+      </c>
+      <c r="AA103" s="26">
+        <v>2014</v>
+      </c>
+      <c r="AB103" s="26">
         <v>3655</v>
       </c>
-      <c r="AC103" s="1">
+      <c r="AC103" s="27">
         <v>10379</v>
       </c>
-      <c r="AE103">
+      <c r="AE103" s="8">
         <v>10</v>
       </c>
-      <c r="AG103" s="1">
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="25">
         <v>0</v>
       </c>
-      <c r="AH103" s="1">
+      <c r="AH103" s="26">
         <v>0</v>
       </c>
-      <c r="AI103" s="1">
+      <c r="AI103" s="26">
         <v>3</v>
       </c>
-      <c r="AJ103" s="1">
+      <c r="AJ103" s="26">
         <v>6</v>
       </c>
-      <c r="AK103" s="1">
+      <c r="AK103" s="26">
         <v>10</v>
       </c>
-      <c r="AL103" s="1">
+      <c r="AL103" s="26">
         <v>18</v>
       </c>
-      <c r="AM103" s="1">
+      <c r="AM103" s="26">
         <v>34</v>
       </c>
-      <c r="AN103" s="1">
+      <c r="AN103" s="26">
         <v>73</v>
       </c>
-      <c r="AO103" s="1">
+      <c r="AO103" s="26">
         <v>186</v>
       </c>
-      <c r="AP103" s="1">
+      <c r="AP103" s="26">
         <v>405</v>
       </c>
-      <c r="AQ103" s="1">
+      <c r="AQ103" s="27">
         <v>892</v>
       </c>
     </row>
-    <row r="104" spans="3:43" x14ac:dyDescent="0.3">
-      <c r="E104">
+    <row r="104" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="11"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="24">
         <f t="shared" ref="E104:O104" si="17">SUM(E94:E103)/10</f>
         <v>6.2</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="6">
         <f t="shared" si="17"/>
         <v>17</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="6">
         <f t="shared" si="17"/>
         <v>36.299999999999997</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="6">
         <f t="shared" si="17"/>
         <v>72.900000000000006</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="6">
         <f t="shared" si="17"/>
         <v>112.4</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="6">
         <f t="shared" si="17"/>
         <v>193.6</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="6">
         <f t="shared" si="17"/>
         <v>406.5</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="6">
         <f t="shared" si="17"/>
         <v>842.8</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="6">
         <f t="shared" si="17"/>
         <v>2193.8000000000002</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="6">
         <f t="shared" si="17"/>
         <v>4324.3999999999996</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="7">
         <f t="shared" si="17"/>
         <v>7797.9</v>
       </c>
-      <c r="S104">
+      <c r="Q104" s="11"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="5">
         <f t="shared" ref="S104:AC104" si="18">SUM(S94:S103)/10</f>
         <v>6</v>
       </c>
-      <c r="T104">
+      <c r="T104" s="6">
         <f t="shared" si="18"/>
         <v>17.2</v>
       </c>
-      <c r="U104">
+      <c r="U104" s="6">
         <f t="shared" si="18"/>
         <v>37.9</v>
       </c>
-      <c r="V104">
+      <c r="V104" s="6">
         <f t="shared" si="18"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="W104">
+      <c r="W104" s="6">
         <f t="shared" si="18"/>
         <v>114.4</v>
       </c>
-      <c r="X104">
+      <c r="X104" s="6">
         <f t="shared" si="18"/>
         <v>193.8</v>
       </c>
-      <c r="Y104">
+      <c r="Y104" s="6">
         <f t="shared" si="18"/>
         <v>412.7</v>
       </c>
-      <c r="Z104">
+      <c r="Z104" s="6">
         <f t="shared" si="18"/>
-        <v>900</v>
-      </c>
-      <c r="AA104">
+        <v>870</v>
+      </c>
+      <c r="AA104" s="6">
         <f t="shared" si="18"/>
-        <v>2792.2</v>
-      </c>
-      <c r="AB104">
+        <v>1992.6</v>
+      </c>
+      <c r="AB104" s="6">
         <f t="shared" si="18"/>
         <v>3637.2</v>
       </c>
-      <c r="AC104">
+      <c r="AC104" s="7">
         <f t="shared" si="18"/>
         <v>10386.9</v>
       </c>
-      <c r="AG104">
+      <c r="AE104" s="11"/>
+      <c r="AF104" s="18"/>
+      <c r="AG104" s="24">
         <f t="shared" ref="AG104:AQ104" si="19">SUM(AG94:AG103)/10</f>
         <v>0</v>
       </c>
-      <c r="AH104">
+      <c r="AH104" s="6">
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
-      <c r="AI104">
+      <c r="AI104" s="6">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="AJ104">
+      <c r="AJ104" s="6">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="AK104">
+      <c r="AK104" s="6">
         <f t="shared" si="19"/>
         <v>9.9</v>
       </c>
-      <c r="AL104">
+      <c r="AL104" s="6">
         <f t="shared" si="19"/>
         <v>17.2</v>
       </c>
-      <c r="AM104">
+      <c r="AM104" s="6">
         <f t="shared" si="19"/>
         <v>32.9</v>
       </c>
-      <c r="AN104">
+      <c r="AN104" s="6">
         <f t="shared" si="19"/>
         <v>70.7</v>
       </c>
-      <c r="AO104">
+      <c r="AO104" s="6">
         <f t="shared" si="19"/>
         <v>186</v>
       </c>
-      <c r="AP104">
+      <c r="AP104" s="6">
         <f t="shared" si="19"/>
         <v>395.8</v>
       </c>
-      <c r="AQ104">
+      <c r="AQ104" s="7">
         <f t="shared" si="19"/>
         <v>865.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>